--- a/log_insercao.xlsx
+++ b/log_insercao.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +412,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -511,6 +510,216 @@
       </c>
       <c r="C6" t="n">
         <v>803</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-09-29 13:36:49</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>tickets</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-09-29 14:24:21</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>evaluations</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>26346</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-09-29 14:44:47</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>users</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-09-29 15:27:33</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-09-29 21:52:32</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>items</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>196834</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-09-29 22:13:26</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>items</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-09-29 22:14:15</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>categories</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>21308</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-09-29 22:14:18</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>actions</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-09-29 22:14:19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>tickets</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-09-29 22:15:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>evaluations</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-09-29 22:15:01</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>users</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-09-29 22:15:01</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-09-29 22:15:01</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>departments</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-09-29 22:15:02</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>user_types</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
